--- a/public/roleList.xlsx
+++ b/public/roleList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16274\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857AB42F-10E7-4EEE-AA92-363FEBF67790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751815B8-C9D8-4525-A7CF-D7D3F2E9F843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2048" yWindow="1763" windowWidth="16695" windowHeight="10034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="21585" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,6 +101,15 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{601947CC-CA64-4C0C-9DE3-D669E89AD571}" name="表2" displayName="表2" ref="A1:A4" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7F7CF37E-64D4-4B07-B87F-E15C498E992C}" name="角色"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,7 +378,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -404,5 +413,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>